--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -165,51 +165,6 @@
     <t>STANDARD</t>
   </si>
   <si>
-    <t>WALL2</t>
-  </si>
-  <si>
-    <t>WALL5</t>
-  </si>
-  <si>
-    <t>SHADE2</t>
-  </si>
-  <si>
-    <t>SHADE1</t>
-  </si>
-  <si>
-    <t>ROOF2</t>
-  </si>
-  <si>
-    <t>ROOF1</t>
-  </si>
-  <si>
-    <t>ROOF4</t>
-  </si>
-  <si>
-    <t>WIN4</t>
-  </si>
-  <si>
-    <t>WIN2</t>
-  </si>
-  <si>
-    <t>WIN1</t>
-  </si>
-  <si>
-    <t>LEAK3</t>
-  </si>
-  <si>
-    <t>LEAK2</t>
-  </si>
-  <si>
-    <t>LEAK1</t>
-  </si>
-  <si>
-    <t>CONS3</t>
-  </si>
-  <si>
-    <t>CONS2</t>
-  </si>
-  <si>
     <t>STANDARD1</t>
   </si>
   <si>
@@ -310,6 +265,51 @@
   </si>
   <si>
     <t>HVAC_CONTROLLER_AS3</t>
+  </si>
+  <si>
+    <t>WALL_AS2</t>
+  </si>
+  <si>
+    <t>WALL_AS5</t>
+  </si>
+  <si>
+    <t>ROOF_AS2</t>
+  </si>
+  <si>
+    <t>ROOF_AS1</t>
+  </si>
+  <si>
+    <t>ROOF_AS4</t>
+  </si>
+  <si>
+    <t>SHADING_AS2</t>
+  </si>
+  <si>
+    <t>SHADING_AS1</t>
+  </si>
+  <si>
+    <t>WINDOW_AS1</t>
+  </si>
+  <si>
+    <t>WINDOW_AS2</t>
+  </si>
+  <si>
+    <t>WINDOW_AS4</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS3</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS2</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS1</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_AS3</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_AS2</t>
   </si>
 </sst>
 </file>
@@ -1236,21 +1236,21 @@
         <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D2" s="19">
         <v>1920</v>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="19">
         <v>1970</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D4" s="19">
         <v>1980</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="19">
         <v>2000</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D6" s="20">
         <v>2020</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D7" s="20">
         <v>2020</v>
@@ -1338,21 +1338,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1417,25 +1418,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2">
         <v>0.82</v>
@@ -1468,25 +1469,25 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <v>0.82</v>
@@ -1519,25 +1520,25 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>0.82</v>
@@ -1570,25 +1571,25 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>0.82</v>
@@ -1621,25 +1622,25 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2">
         <v>0.82</v>
@@ -1671,25 +1672,25 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2">
         <v>0.82</v>
@@ -1783,22 +1784,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -1815,22 +1816,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -1847,22 +1848,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -1879,22 +1880,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -1911,22 +1912,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -1943,22 +1944,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
@@ -1983,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2016,104 +2017,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2191,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9">
         <v>57</v>
@@ -2231,7 +2232,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9">
         <v>34</v>
@@ -2272,7 +2273,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9">
         <v>36</v>
@@ -2313,7 +2314,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9">
         <v>57</v>
@@ -2354,7 +2355,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9">
         <v>112</v>
@@ -2395,7 +2396,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9">
         <v>112</v>
@@ -2447,6 +2448,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2616,15 +2626,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
@@ -2642,6 +2643,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2657,12 +2666,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -16,7 +16,6 @@
     <sheet name="ENVELOPE_ASSEMBLIES" sheetId="3" r:id="rId2"/>
     <sheet name="HVAC_ASSEMBLIES" sheetId="1" r:id="rId3"/>
     <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId4"/>
-    <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>type_hs</t>
   </si>
@@ -120,45 +119,6 @@
     <t>Hs_bg</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>SIA2040: Residential (current values: Top-Down Method)</t>
-  </si>
-  <si>
-    <t>Win_kgm2</t>
-  </si>
-  <si>
-    <t>W_e_ag_kgm2</t>
-  </si>
-  <si>
-    <t>W_e_bg_kgm2</t>
-  </si>
-  <si>
-    <t>W_i_ag_kgm2</t>
-  </si>
-  <si>
-    <t>W_i_bg_kgm2</t>
-  </si>
-  <si>
-    <t>F_i_kgm2</t>
-  </si>
-  <si>
-    <t>F_e_kgm2</t>
-  </si>
-  <si>
-    <t>R_kgm2</t>
-  </si>
-  <si>
-    <t>Exca_kgm2</t>
-  </si>
-  <si>
-    <t>Tech_kgm2</t>
-  </si>
-  <si>
-    <t>Mobi_kgm2</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -310,6 +270,18 @@
   </si>
   <si>
     <t>CONSTRUCTION_AS2</t>
+  </si>
+  <si>
+    <t>FLOOR_AS1</t>
+  </si>
+  <si>
+    <t>type_floor</t>
+  </si>
+  <si>
+    <t>type_base</t>
+  </si>
+  <si>
+    <t>FLOOR_AS2</t>
   </si>
 </sst>
 </file>
@@ -823,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,26 +817,6 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1230,99 +1185,99 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="19">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11">
         <v>1920</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="19">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11">
         <v>1970</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="19">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11">
         <v>1980</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="19">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="20">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12">
         <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="20">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12">
         <v>2020</v>
       </c>
     </row>
@@ -1336,13 +1291,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,23 +1307,24 @@
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1386,78 +1342,84 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.82</v>
+      <c r="I2" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J2" s="2">
         <v>0.82</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="7">
+      <c r="N2" s="7">
         <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.16</v>
       </c>
       <c r="O2" s="2">
         <v>0.16</v>
@@ -1465,50 +1427,56 @@
       <c r="P2" s="2">
         <v>0.16</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.82</v>
+      <c r="H3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J3" s="2">
         <v>0.82</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="7">
+      <c r="N3" s="7">
         <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.21</v>
       </c>
       <c r="O3" s="2">
         <v>0.21</v>
@@ -1516,50 +1484,56 @@
       <c r="P3" s="2">
         <v>0.21</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.82</v>
+      <c r="H4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J4" s="2">
         <v>0.82</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N4" s="7">
         <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.25</v>
       </c>
       <c r="O4" s="2">
         <v>0.25</v>
@@ -1567,50 +1541,56 @@
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.82</v>
+        <v>66</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J5" s="2">
         <v>0.82</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="7">
+      <c r="N5" s="7">
         <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.21</v>
       </c>
       <c r="O5" s="2">
         <v>0.21</v>
@@ -1618,50 +1598,56 @@
       <c r="P5" s="2">
         <v>0.21</v>
       </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.82</v>
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J6" s="2">
         <v>0.82</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="7">
+      <c r="N6" s="7">
         <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.15</v>
       </c>
       <c r="O6" s="2">
         <v>0.15</v>
@@ -1669,54 +1655,66 @@
       <c r="P6" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.82</v>
+        <v>66</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J7" s="2">
         <v>0.82</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="7">
+      <c r="N7" s="7">
         <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.15</v>
       </c>
       <c r="O7" s="2">
         <v>0.15</v>
       </c>
       <c r="P7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R7" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -1734,7 +1732,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1784,22 +1782,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -1816,22 +1814,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -1848,22 +1846,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -1880,22 +1878,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -1912,22 +1910,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -1944,22 +1942,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
@@ -1985,7 +1983,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2017,104 +2015,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2122,341 +2120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9">
-        <v>57</v>
-      </c>
-      <c r="D2" s="9">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9">
-        <v>32</v>
-      </c>
-      <c r="F2" s="9">
-        <v>47</v>
-      </c>
-      <c r="G2" s="9">
-        <v>64</v>
-      </c>
-      <c r="H2" s="9">
-        <v>39</v>
-      </c>
-      <c r="I2" s="9">
-        <v>29</v>
-      </c>
-      <c r="J2" s="9">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9">
-        <v>135</v>
-      </c>
-      <c r="L2" s="11">
-        <v>16</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9">
-        <v>34</v>
-      </c>
-      <c r="D3" s="9">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9">
-        <v>62</v>
-      </c>
-      <c r="G3" s="9">
-        <v>113</v>
-      </c>
-      <c r="H3" s="9">
-        <v>113</v>
-      </c>
-      <c r="I3" s="9">
-        <v>57</v>
-      </c>
-      <c r="J3" s="9">
-        <v>32</v>
-      </c>
-      <c r="K3" s="9">
-        <v>135</v>
-      </c>
-      <c r="L3" s="11">
-        <v>16</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="9">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9">
-        <v>35</v>
-      </c>
-      <c r="D4" s="9">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9">
-        <v>123</v>
-      </c>
-      <c r="G4" s="9">
-        <v>110</v>
-      </c>
-      <c r="H4" s="9">
-        <v>113</v>
-      </c>
-      <c r="I4" s="9">
-        <v>113</v>
-      </c>
-      <c r="J4" s="9">
-        <v>32</v>
-      </c>
-      <c r="K4" s="9">
-        <v>135</v>
-      </c>
-      <c r="L4" s="11">
-        <v>16</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="9">
-        <v>57</v>
-      </c>
-      <c r="C5" s="9">
-        <v>71</v>
-      </c>
-      <c r="D5" s="9">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9">
-        <v>69</v>
-      </c>
-      <c r="G5" s="9">
-        <v>91</v>
-      </c>
-      <c r="H5" s="9">
-        <v>104</v>
-      </c>
-      <c r="I5" s="9">
-        <v>113</v>
-      </c>
-      <c r="J5" s="9">
-        <v>32</v>
-      </c>
-      <c r="K5" s="9">
-        <v>135</v>
-      </c>
-      <c r="L5" s="11">
-        <v>16</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="9">
-        <v>112</v>
-      </c>
-      <c r="C6" s="9">
-        <v>188</v>
-      </c>
-      <c r="D6" s="9">
-        <v>73</v>
-      </c>
-      <c r="E6" s="9">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9">
-        <v>85</v>
-      </c>
-      <c r="G6" s="9">
-        <v>75</v>
-      </c>
-      <c r="H6" s="9">
-        <v>180</v>
-      </c>
-      <c r="I6" s="9">
-        <v>78</v>
-      </c>
-      <c r="J6" s="9">
-        <v>32</v>
-      </c>
-      <c r="K6" s="9">
-        <v>135</v>
-      </c>
-      <c r="L6" s="11">
-        <v>16</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9">
-        <v>188</v>
-      </c>
-      <c r="D7" s="9">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9">
-        <v>85</v>
-      </c>
-      <c r="G7" s="9">
-        <v>75</v>
-      </c>
-      <c r="H7" s="9">
-        <v>180</v>
-      </c>
-      <c r="I7" s="9">
-        <v>78</v>
-      </c>
-      <c r="J7" s="9">
-        <v>32</v>
-      </c>
-      <c r="K7" s="9">
-        <v>135</v>
-      </c>
-      <c r="L7" s="11">
-        <v>16</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2626,7 +2290,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2642,28 +2339,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>type_hs</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>FLOOR_AS2</t>
+  </si>
+  <si>
+    <t>type_part</t>
+  </si>
+  <si>
+    <t>WALL_AS7</t>
   </si>
 </sst>
 </file>
@@ -1291,13 +1297,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,22 +1313,22 @@
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1339,46 +1345,49 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1395,19 +1404,19 @@
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.82</v>
       </c>
       <c r="K2" s="2">
         <v>0.82</v>
@@ -1415,14 +1424,14 @@
       <c r="L2" s="2">
         <v>0.82</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N2" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.16</v>
       </c>
       <c r="P2" s="2">
         <v>0.16</v>
@@ -1433,9 +1442,12 @@
       <c r="R2" s="2">
         <v>0.16</v>
       </c>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1452,19 +1464,19 @@
         <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.82</v>
       </c>
       <c r="K3" s="2">
         <v>0.82</v>
@@ -1472,14 +1484,14 @@
       <c r="L3" s="2">
         <v>0.82</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.21</v>
       </c>
       <c r="P3" s="2">
         <v>0.21</v>
@@ -1490,9 +1502,12 @@
       <c r="R3" s="2">
         <v>0.21</v>
       </c>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1509,19 +1524,19 @@
         <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.82</v>
       </c>
       <c r="K4" s="2">
         <v>0.82</v>
@@ -1529,14 +1544,14 @@
       <c r="L4" s="2">
         <v>0.82</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.25</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
@@ -1547,9 +1562,12 @@
       <c r="R4" s="2">
         <v>0.25</v>
       </c>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1566,19 +1584,19 @@
         <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.82</v>
       </c>
       <c r="K5" s="2">
         <v>0.82</v>
@@ -1586,14 +1604,14 @@
       <c r="L5" s="2">
         <v>0.82</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.21</v>
       </c>
       <c r="P5" s="2">
         <v>0.21</v>
@@ -1604,9 +1622,12 @@
       <c r="R5" s="2">
         <v>0.21</v>
       </c>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1623,19 +1644,19 @@
         <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.82</v>
       </c>
       <c r="K6" s="2">
         <v>0.82</v>
@@ -1643,14 +1664,14 @@
       <c r="L6" s="2">
         <v>0.82</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.15</v>
       </c>
       <c r="P6" s="2">
         <v>0.15</v>
@@ -1661,8 +1682,11 @@
       <c r="R6" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1679,19 +1703,19 @@
         <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.82</v>
       </c>
       <c r="K7" s="2">
         <v>0.82</v>
@@ -1699,14 +1723,14 @@
       <c r="L7" s="2">
         <v>0.82</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.15</v>
       </c>
       <c r="P7" s="2">
         <v>0.15</v>
@@ -1715,6 +1739,9 @@
         <v>0.15</v>
       </c>
       <c r="R7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S7" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -2121,6 +2148,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2290,35 +2332,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2340,9 +2357,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2930" windowWidth="19340" windowHeight="16460" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1177,19 +1177,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1270,10 +1270,10 @@
         <v>46</v>
       </c>
       <c r="D6" s="12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="12">
-        <v>2020</v>
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -1299,36 +1299,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1762,20 +1762,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2013,17 +2013,17 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2148,21 +2148,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2332,10 +2317,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2357,19 +2367,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2930" windowWidth="19340" windowHeight="16460" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>type_hs</t>
   </si>
@@ -281,13 +281,16 @@
     <t>type_base</t>
   </si>
   <si>
-    <t>FLOOR_AS2</t>
-  </si>
-  <si>
     <t>type_part</t>
   </si>
   <si>
     <t>WALL_AS7</t>
+  </si>
+  <si>
+    <t>FLOOR_AS4</t>
+  </si>
+  <si>
+    <t>FLOOR_AS3</t>
   </si>
 </sst>
 </file>
@@ -1177,19 +1180,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1299,36 +1302,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -1387,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>65</v>
@@ -1413,7 +1416,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>70</v>
@@ -1447,7 +1450,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1464,16 +1467,16 @@
         <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>71</v>
@@ -1507,7 +1510,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1524,16 +1527,16 @@
         <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>71</v>
@@ -1567,7 +1570,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1584,16 +1587,16 @@
         <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>71</v>
@@ -1627,7 +1630,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1644,16 +1647,16 @@
         <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>71</v>
@@ -1686,7 +1689,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1703,16 +1706,16 @@
         <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>71</v>
@@ -1762,20 +1765,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2013,17 +2016,17 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2148,6 +2151,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2317,35 +2335,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2367,9 +2360,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Desktop\REMoD\Case_studies\Bonstetten_Wettswil\inputs\technology\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>type_hs</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>FLOOR_AS3</t>
+  </si>
+  <si>
+    <t>FLOOR_AS6</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1309,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1479,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>71</v>
@@ -1536,7 +1539,7 @@
         <v>86</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>71</v>
@@ -1596,7 +1599,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>71</v>
@@ -1656,7 +1659,7 @@
         <v>86</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>71</v>
@@ -1715,7 +1718,7 @@
         <v>86</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>71</v>
@@ -2151,21 +2154,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2335,31 +2323,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2375,4 +2354,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Desktop\REMoD\Case_studies\Bonstetten_Wettswil\inputs\technology\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8238AD29-3865-4037-A7D8-D42FC724C48C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="105" windowWidth="38640" windowHeight="21240" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>type_hs</t>
   </si>
@@ -294,12 +295,27 @@
   </si>
   <si>
     <t>FLOOR_AS6</t>
+  </si>
+  <si>
+    <t>WALL_AS9</t>
+  </si>
+  <si>
+    <t>WALL_AS10</t>
+  </si>
+  <si>
+    <t>type_wall_b</t>
+  </si>
+  <si>
+    <t>area_balcon</t>
+  </si>
+  <si>
+    <t>area_pv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -807,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,7 +838,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,48 +861,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -900,12 +915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="OPbrntBvG5@student.ethz.ch" id="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" userId="S::OPbrntBvG5@student.ethz.ch::4619f5d3-a278-48a2-998f-258564ebce46" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,25 +1178,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2019-09-11T13:24:25.40" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{FF09A2C2-F812-4995-AC4D-DC9926B18FFB}">
-    <text>old CEA database: T2 instead of T3 (mini split AC instead of central AC)
-Currently: all changed to T3
-Discussion with Martin about this</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
@@ -1213,13 +1212,13 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1920</v>
       </c>
     </row>
@@ -1227,13 +1226,13 @@
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1970</v>
       </c>
     </row>
@@ -1241,13 +1240,13 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>1980</v>
       </c>
     </row>
@@ -1255,13 +1254,13 @@
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -1269,13 +1268,13 @@
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>2040</v>
       </c>
     </row>
@@ -1283,13 +1282,13 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2040</v>
       </c>
     </row>
@@ -1302,39 +1301,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1357,43 +1359,52 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1415,17 +1426,17 @@
       <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.82</v>
       </c>
       <c r="L2" s="2">
         <v>0.82</v>
@@ -1433,14 +1444,14 @@
       <c r="M2" s="2">
         <v>0.82</v>
       </c>
-      <c r="N2" s="8">
-        <v>0</v>
+      <c r="N2" s="2">
+        <v>0.82</v>
       </c>
       <c r="O2" s="7">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
-        <v>0.16</v>
+      <c r="P2" s="6">
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0.16</v>
@@ -1451,9 +1462,17 @@
       <c r="S2" s="2">
         <v>0.16</v>
       </c>
-      <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1475,17 +1494,17 @@
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.82</v>
       </c>
       <c r="L3" s="2">
         <v>0.82</v>
@@ -1493,14 +1512,14 @@
       <c r="M3" s="2">
         <v>0.82</v>
       </c>
-      <c r="N3" s="8">
-        <v>0</v>
+      <c r="N3" s="2">
+        <v>0.82</v>
       </c>
       <c r="O3" s="7">
         <v>0</v>
       </c>
-      <c r="P3" s="2">
-        <v>0.21</v>
+      <c r="P3" s="6">
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0.21</v>
@@ -1511,9 +1530,17 @@
       <c r="S3" s="2">
         <v>0.21</v>
       </c>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1535,17 +1562,17 @@
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.82</v>
       </c>
       <c r="L4" s="2">
         <v>0.82</v>
@@ -1553,14 +1580,14 @@
       <c r="M4" s="2">
         <v>0.82</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
+      <c r="N4" s="2">
+        <v>0.82</v>
       </c>
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.25</v>
+      <c r="P4" s="6">
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0.25</v>
@@ -1571,9 +1598,17 @@
       <c r="S4" s="2">
         <v>0.25</v>
       </c>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1595,17 +1630,17 @@
       <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.82</v>
       </c>
       <c r="L5" s="2">
         <v>0.82</v>
@@ -1613,14 +1648,14 @@
       <c r="M5" s="2">
         <v>0.82</v>
       </c>
-      <c r="N5" s="8">
-        <v>0</v>
+      <c r="N5" s="2">
+        <v>0.82</v>
       </c>
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="2">
-        <v>0.21</v>
+      <c r="P5" s="6">
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0.21</v>
@@ -1631,9 +1666,17 @@
       <c r="S5" s="2">
         <v>0.21</v>
       </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1655,17 +1698,17 @@
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.82</v>
       </c>
       <c r="L6" s="2">
         <v>0.82</v>
@@ -1673,14 +1716,14 @@
       <c r="M6" s="2">
         <v>0.82</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
+      <c r="N6" s="2">
+        <v>0.82</v>
       </c>
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.15</v>
+      <c r="P6" s="6">
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0.15</v>
@@ -1691,8 +1734,17 @@
       <c r="S6" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1714,17 +1766,17 @@
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.82</v>
       </c>
       <c r="L7" s="2">
         <v>0.82</v>
@@ -1732,14 +1784,14 @@
       <c r="M7" s="2">
         <v>0.82</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
+      <c r="N7" s="2">
+        <v>0.82</v>
       </c>
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <v>0.15</v>
+      <c r="P7" s="6">
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0.15</v>
@@ -1749,6 +1801,15 @@
       </c>
       <c r="S7" s="2">
         <v>0.15</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -1768,7 +1829,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -2012,14 +2073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2154,6 +2215,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2323,22 +2399,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2354,28 +2439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8238AD29-3865-4037-A7D8-D42FC724C48C}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB0E5ED-AA3B-4C0D-BC20-0DCE6CF98640}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="105" windowWidth="38640" windowHeight="21240" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -18,10 +18,19 @@
     <sheet name="HVAC_ASSEMBLIES" sheetId="1" r:id="rId3"/>
     <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="146">
   <si>
     <t>type_hs</t>
   </si>
@@ -144,24 +153,9 @@
     <t>STANDARD6</t>
   </si>
   <si>
-    <t>Stone and Masonry from 1000's to 1920's</t>
-  </si>
-  <si>
-    <t>Concrete and Masonry from 1920's to 1970's</t>
-  </si>
-  <si>
     <t>Concrete and Masonry from 1970's to 1980's</t>
   </si>
   <si>
-    <t>Concrete and Masonry from 1980's to 2000's</t>
-  </si>
-  <si>
-    <t>Concrete and Masonry from 2000's to 2020's</t>
-  </si>
-  <si>
-    <t>Concrete and Masonry  from 2000's to 2020's - Minergie Standard</t>
-  </si>
-  <si>
     <t>YEAR_START</t>
   </si>
   <si>
@@ -171,12 +165,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
     <t>1971</t>
   </si>
   <si>
@@ -285,21 +273,9 @@
     <t>type_part</t>
   </si>
   <si>
-    <t>WALL_AS7</t>
-  </si>
-  <si>
-    <t>FLOOR_AS4</t>
-  </si>
-  <si>
     <t>FLOOR_AS3</t>
   </si>
   <si>
-    <t>FLOOR_AS6</t>
-  </si>
-  <si>
-    <t>WALL_AS9</t>
-  </si>
-  <si>
     <t>WALL_AS10</t>
   </si>
   <si>
@@ -310,6 +286,198 @@
   </si>
   <si>
     <t>area_pv</t>
+  </si>
+  <si>
+    <t>SATANDARD1</t>
+  </si>
+  <si>
+    <t>SATANDARD2</t>
+  </si>
+  <si>
+    <t>SATANDARD3</t>
+  </si>
+  <si>
+    <t>SATANDARD4</t>
+  </si>
+  <si>
+    <t>SATANDARD5</t>
+  </si>
+  <si>
+    <t>SATANDARD6</t>
+  </si>
+  <si>
+    <t>SATANDARD7</t>
+  </si>
+  <si>
+    <t>SATANDARD8</t>
+  </si>
+  <si>
+    <t>SATANDARD9</t>
+  </si>
+  <si>
+    <t>SATANDARD10</t>
+  </si>
+  <si>
+    <t>SATANDARD11</t>
+  </si>
+  <si>
+    <t>SATANDARD12</t>
+  </si>
+  <si>
+    <t>STANDARD7</t>
+  </si>
+  <si>
+    <t>STANDARD8</t>
+  </si>
+  <si>
+    <t>STANDARD9</t>
+  </si>
+  <si>
+    <t>STANDARD10</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS4</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS5</t>
+  </si>
+  <si>
+    <t>TIGHTNESS_AS6</t>
+  </si>
+  <si>
+    <t>WINDOW_AS3</t>
+  </si>
+  <si>
+    <t>Stone and Masonry before 1900's</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1900's to 1930's</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1930s to 1960's</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1960's to 1970's</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1980's to 1990's</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry (Minergie A)</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>SATANDARD13</t>
+  </si>
+  <si>
+    <t>SATANDARD14</t>
+  </si>
+  <si>
+    <t>SATANDARD15</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1990's to 2000's</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 2000's to 2010's</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 2010's to 2020's</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>SATANDARD16</t>
+  </si>
+  <si>
+    <t>SATANDARD17</t>
+  </si>
+  <si>
+    <t>ROOF_AS3</t>
+  </si>
+  <si>
+    <t>Stone and Masonry before 1900's (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1900's to 1930's  (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1930s to 1960's  (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1960's to 1970's  (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1970's to 1980's  (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1980's to 1990's  (renovated)</t>
+  </si>
+  <si>
+    <t>Concrete and Masonry from 1990's to 2000's  (renovated)</t>
+  </si>
+  <si>
+    <t>Refernez</t>
+  </si>
+  <si>
+    <t>1.3 Gebäudehülle seit 1900 | Bautechnik der Gebäudehülle (enbau-online.ch)</t>
+  </si>
+  <si>
+    <t>WALL_AS1</t>
+  </si>
+  <si>
+    <t>WALL_AS3</t>
+  </si>
+  <si>
+    <t>WALL_AS4</t>
+  </si>
+  <si>
+    <t>WALL_AS8</t>
+  </si>
+  <si>
+    <t>WALL_AS11</t>
+  </si>
+  <si>
+    <t>FLOOR_AS2</t>
+  </si>
+  <si>
+    <t>STANDARD11</t>
+  </si>
+  <si>
+    <t>STANDARD12</t>
+  </si>
+  <si>
+    <t>STANDARD13</t>
+  </si>
+  <si>
+    <t>STANDARD14</t>
+  </si>
+  <si>
+    <t>STANDARD15</t>
+  </si>
+  <si>
+    <t>STANDARD16</t>
+  </si>
+  <si>
+    <t>STANDARD17</t>
   </si>
 </sst>
 </file>
@@ -319,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +621,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -779,7 +971,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -822,8 +1014,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,8 +1052,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -891,6 +1093,7 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1180,15 +1383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1202,871 +1405,2348 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10">
-        <v>1920</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D3" s="10">
-        <v>1970</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D4" s="10">
-        <v>1980</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10">
-        <v>2000</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2040</v>
+      <c r="D6" s="10">
+        <v>1980</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="11">
-        <v>2040</v>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:D3 C4:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="C11 C2:C8 C9:C10 C12:D18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13" t="str">
+        <f>STANDARD_DEFINITION!B2</f>
+        <v>Stone and Masonry before 1900's</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="B3" s="13" t="str">
+        <f>STANDARD_DEFINITION!B3</f>
+        <v>Concrete and Masonry from 1900's to 1930's</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f>STANDARD_DEFINITION!B4</f>
+        <v>Concrete and Masonry from 1930s to 1960's</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f>STANDARD_DEFINITION!B5</f>
+        <v>Concrete and Masonry from 1960's to 1970's</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f>STANDARD_DEFINITION!B6</f>
+        <v>Concrete and Masonry from 1970's to 1980's</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="15"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <f>STANDARD_DEFINITION!B7</f>
+        <v>Concrete and Masonry from 1980's to 1990's</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f>STANDARD_DEFINITION!B8</f>
+        <v>Concrete and Masonry from 1990's to 2000's</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>STANDARD_DEFINITION!B9</f>
+        <v>Concrete and Masonry from 2000's to 2010's</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="B10" s="13" t="str">
+        <f>STANDARD_DEFINITION!B10</f>
+        <v>Concrete and Masonry from 2010's to 2020's</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>STANDARD_DEFINITION!B11</f>
+        <v>Concrete and Masonry (Minergie A)</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="13" t="str">
+        <f>STANDARD_DEFINITION!B12</f>
+        <v>Stone and Masonry before 1900's (renovated)</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="J12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>STANDARD_DEFINITION!B13</f>
+        <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>STANDARD_DEFINITION!B14</f>
+        <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>STANDARD_DEFINITION!B15</f>
+        <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>STANDARD_DEFINITION!B16</f>
+        <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="15"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>STANDARD_DEFINITION!B17</f>
+        <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="K17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" s="15"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>STANDARD_DEFINITION!B18</f>
+        <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="U5" s="6">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="K18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
+      <c r="L18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
+    <hyperlink ref="X3:X18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
+      <c r="B2" s="13" t="str">
+        <f>STANDARD_DEFINITION!B2</f>
+        <v>Stone and Masonry before 1900's</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
+      <c r="B3" s="13" t="str">
+        <f>STANDARD_DEFINITION!B3</f>
+        <v>Concrete and Masonry from 1900's to 1930's</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
+      <c r="B4" s="13" t="str">
+        <f>STANDARD_DEFINITION!B4</f>
+        <v>Concrete and Masonry from 1930s to 1960's</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
+      <c r="B5" s="13" t="str">
+        <f>STANDARD_DEFINITION!B5</f>
+        <v>Concrete and Masonry from 1960's to 1970's</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
+      <c r="B6" s="13" t="str">
+        <f>STANDARD_DEFINITION!B6</f>
+        <v>Concrete and Masonry from 1970's to 1980's</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
+      <c r="B7" s="13" t="str">
+        <f>STANDARD_DEFINITION!B7</f>
+        <v>Concrete and Masonry from 1980's to 1990's</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f>STANDARD_DEFINITION!B8</f>
+        <v>Concrete and Masonry from 1990's to 2000's</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>STANDARD_DEFINITION!B9</f>
+        <v>Concrete and Masonry from 2000's to 2010's</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>STANDARD_DEFINITION!B10</f>
+        <v>Concrete and Masonry from 2010's to 2020's</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>STANDARD_DEFINITION!B11</f>
+        <v>Concrete and Masonry (Minergie A)</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f>STANDARD_DEFINITION!B12</f>
+        <v>Stone and Masonry before 1900's (renovated)</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>STANDARD_DEFINITION!B13</f>
+        <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>STANDARD_DEFINITION!B14</f>
+        <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>STANDARD_DEFINITION!B15</f>
+        <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>STANDARD_DEFINITION!B16</f>
+        <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>STANDARD_DEFINITION!B17</f>
+        <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>STANDARD_DEFINITION!B18</f>
+        <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2074,162 +3754,407 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
+      <c r="B2" s="13" t="str">
+        <f>STANDARD_DEFINITION!B2</f>
+        <v>Stone and Masonry before 1900's</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
+      <c r="B3" s="13" t="str">
+        <f>STANDARD_DEFINITION!B3</f>
+        <v>Concrete and Masonry from 1900's to 1930's</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
+      <c r="B4" s="13" t="str">
+        <f>STANDARD_DEFINITION!B4</f>
+        <v>Concrete and Masonry from 1930s to 1960's</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
+      <c r="B5" s="13" t="str">
+        <f>STANDARD_DEFINITION!B5</f>
+        <v>Concrete and Masonry from 1960's to 1970's</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
+      <c r="B6" s="13" t="str">
+        <f>STANDARD_DEFINITION!B6</f>
+        <v>Concrete and Masonry from 1970's to 1980's</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
+      <c r="B7" s="13" t="str">
+        <f>STANDARD_DEFINITION!B7</f>
+        <v>Concrete and Masonry from 1980's to 1990's</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f>STANDARD_DEFINITION!B8</f>
+        <v>Concrete and Masonry from 1990's to 2000's</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>STANDARD_DEFINITION!B9</f>
+        <v>Concrete and Masonry from 2000's to 2010's</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>STANDARD_DEFINITION!B10</f>
+        <v>Concrete and Masonry from 2010's to 2020's</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>STANDARD_DEFINITION!B11</f>
+        <v>Concrete and Masonry (Minergie A)</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f>STANDARD_DEFINITION!B12</f>
+        <v>Stone and Masonry before 1900's (renovated)</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>STANDARD_DEFINITION!B13</f>
+        <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>STANDARD_DEFINITION!B14</f>
+        <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>STANDARD_DEFINITION!B15</f>
+        <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>STANDARD_DEFINITION!B16</f>
+        <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>STANDARD_DEFINITION!B17</f>
+        <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>STANDARD_DEFINITION!B18</f>
+        <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2399,31 +4324,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2439,4 +4355,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB0E5ED-AA3B-4C0D-BC20-0DCE6CF98640}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E92B69B5-6E30-4156-8389-AD3605912662}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
   <si>
     <t>type_hs</t>
   </si>
@@ -288,42 +288,6 @@
     <t>area_pv</t>
   </si>
   <si>
-    <t>SATANDARD1</t>
-  </si>
-  <si>
-    <t>SATANDARD2</t>
-  </si>
-  <si>
-    <t>SATANDARD3</t>
-  </si>
-  <si>
-    <t>SATANDARD4</t>
-  </si>
-  <si>
-    <t>SATANDARD5</t>
-  </si>
-  <si>
-    <t>SATANDARD6</t>
-  </si>
-  <si>
-    <t>SATANDARD7</t>
-  </si>
-  <si>
-    <t>SATANDARD8</t>
-  </si>
-  <si>
-    <t>SATANDARD9</t>
-  </si>
-  <si>
-    <t>SATANDARD10</t>
-  </si>
-  <si>
-    <t>SATANDARD11</t>
-  </si>
-  <si>
-    <t>SATANDARD12</t>
-  </si>
-  <si>
     <t>STANDARD7</t>
   </si>
   <si>
@@ -378,15 +342,6 @@
     <t>1990</t>
   </si>
   <si>
-    <t>SATANDARD13</t>
-  </si>
-  <si>
-    <t>SATANDARD14</t>
-  </si>
-  <si>
-    <t>SATANDARD15</t>
-  </si>
-  <si>
     <t>Concrete and Masonry from 1990's to 2000's</t>
   </si>
   <si>
@@ -403,12 +358,6 @@
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>SATANDARD16</t>
-  </si>
-  <si>
-    <t>SATANDARD17</t>
   </si>
   <si>
     <t>ROOF_AS3</t>
@@ -1386,7 +1335,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,10 +1362,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
@@ -1427,13 +1376,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D3" s="10">
         <v>1930</v>
@@ -1441,13 +1390,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D4" s="10">
         <v>1960</v>
@@ -1455,13 +1404,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D5" s="10">
         <v>1970</v>
@@ -1469,7 +1418,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>37</v>
@@ -1483,10 +1432,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>42</v>
@@ -1497,13 +1446,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11">
         <v>2000</v>
@@ -1511,13 +1460,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D9" s="11">
         <v>2010</v>
@@ -1525,13 +1474,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D10" s="11">
         <v>2020</v>
@@ -1539,13 +1488,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D11" s="11">
         <v>2015</v>
@@ -1553,10 +1502,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>40</v>
@@ -1567,13 +1516,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D13" s="10">
         <v>1930</v>
@@ -1581,13 +1530,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>1960</v>
@@ -1595,13 +1544,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D15" s="10">
         <v>1970</v>
@@ -1609,10 +1558,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>41</v>
@@ -1623,10 +1572,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>42</v>
@@ -1637,13 +1586,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D18" s="11">
         <v>2000</v>
@@ -1666,7 +1615,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,13 +1715,13 @@
         <v>80</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13" t="str">
         <f>STANDARD_DEFINITION!B2</f>
@@ -1782,7 +1731,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>65</v>
@@ -1791,10 +1740,10 @@
         <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>78</v>
@@ -1803,7 +1752,7 @@
         <v>73</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>64</v>
@@ -1842,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y2" s="15"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>STANDARD_DEFINITION!B3</f>
@@ -1858,7 +1807,7 @@
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
@@ -1867,10 +1816,10 @@
         <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>78</v>
@@ -1879,7 +1828,7 @@
         <v>73</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>64</v>
@@ -1918,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>STANDARD_DEFINITION!B4</f>
@@ -1934,7 +1883,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
@@ -1943,7 +1892,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
@@ -1955,7 +1904,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>64</v>
@@ -1994,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y4" s="15"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B5" s="13" t="str">
         <f>STANDARD_DEFINITION!B5</f>
@@ -2019,10 +1968,10 @@
         <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>78</v>
@@ -2031,7 +1980,7 @@
         <v>73</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>64</v>
@@ -2070,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>STANDARD_DEFINITION!B6</f>
@@ -2095,10 +2044,10 @@
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>78</v>
@@ -2107,7 +2056,7 @@
         <v>73</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>63</v>
@@ -2146,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>STANDARD_DEFINITION!B7</f>
@@ -2165,19 +2114,19 @@
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>73</v>
@@ -2222,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>STANDARD_DEFINITION!B8</f>
@@ -2241,19 +2190,19 @@
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>73</v>
@@ -2298,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>STANDARD_DEFINITION!B9</f>
@@ -2317,19 +2266,19 @@
         <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>73</v>
@@ -2374,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>STANDARD_DEFINITION!B10</f>
@@ -2396,16 +2345,16 @@
         <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>73</v>
@@ -2450,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B11" s="13" t="str">
         <f>STANDARD_DEFINITION!B11</f>
@@ -2475,13 +2424,13 @@
         <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>73</v>
@@ -2526,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>STANDARD_DEFINITION!B12</f>
@@ -2545,13 +2494,13 @@
         <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>58</v>
@@ -2563,7 +2512,7 @@
         <v>73</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>64</v>
@@ -2602,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>STANDARD_DEFINITION!B13</f>
@@ -2621,16 +2570,16 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>78</v>
@@ -2639,7 +2588,7 @@
         <v>73</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>64</v>
@@ -2678,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B14" s="13" t="str">
         <f>STANDARD_DEFINITION!B14</f>
@@ -2697,16 +2646,16 @@
         <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>78</v>
@@ -2715,7 +2664,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>64</v>
@@ -2754,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>STANDARD_DEFINITION!B15</f>
@@ -2773,16 +2722,16 @@
         <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>78</v>
@@ -2791,7 +2740,7 @@
         <v>73</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>64</v>
@@ -2830,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>STANDARD_DEFINITION!B16</f>
@@ -2849,16 +2798,16 @@
         <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>78</v>
@@ -2867,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>63</v>
@@ -2906,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>STANDARD_DEFINITION!B17</f>
@@ -2925,19 +2874,19 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>73</v>
@@ -2982,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>STANDARD_DEFINITION!B18</f>
@@ -3001,19 +2950,19 @@
         <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>73</v>
@@ -3058,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Y18" s="15"/>
     </row>
@@ -3077,11 +3026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3300,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>STANDARD_DEFINITION!B8</f>
@@ -3387,7 +3336,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>STANDARD_DEFINITION!B9</f>
@@ -3423,7 +3372,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>STANDARD_DEFINITION!B10</f>
@@ -3459,7 +3408,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B11" s="13" t="str">
         <f>STANDARD_DEFINITION!B11</f>
@@ -3495,7 +3444,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>STANDARD_DEFINITION!B12</f>
@@ -3531,7 +3480,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>STANDARD_DEFINITION!B13</f>
@@ -3567,7 +3516,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B14" s="13" t="str">
         <f>STANDARD_DEFINITION!B14</f>
@@ -3603,7 +3552,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>STANDARD_DEFINITION!B15</f>
@@ -3639,7 +3588,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>STANDARD_DEFINITION!B16</f>
@@ -3675,7 +3624,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>STANDARD_DEFINITION!B17</f>
@@ -3711,7 +3660,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>STANDARD_DEFINITION!B18</f>
@@ -3757,7 +3706,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3919,7 +3868,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>STANDARD_DEFINITION!B8</f>
@@ -3940,7 +3889,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>STANDARD_DEFINITION!B9</f>
@@ -3961,7 +3910,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>STANDARD_DEFINITION!B10</f>
@@ -3982,7 +3931,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B11" s="13" t="str">
         <f>STANDARD_DEFINITION!B11</f>
@@ -4003,7 +3952,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>STANDARD_DEFINITION!B12</f>
@@ -4024,7 +3973,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>STANDARD_DEFINITION!B13</f>
@@ -4045,7 +3994,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B14" s="13" t="str">
         <f>STANDARD_DEFINITION!B14</f>
@@ -4066,7 +4015,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>STANDARD_DEFINITION!B15</f>
@@ -4087,7 +4036,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>STANDARD_DEFINITION!B16</f>
@@ -4108,7 +4057,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>STANDARD_DEFINITION!B17</f>
@@ -4129,7 +4078,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>STANDARD_DEFINITION!B18</f>

--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E92B69B5-6E30-4156-8389-AD3605912662}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB41B7F-2021-41A1-8B40-50B639A22890}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="-1200" windowWidth="32490" windowHeight="14340" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1611,11 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A18"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="S2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="U2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="V2" s="6">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="S3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="T3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V3" s="6">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="S4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="T4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V4" s="6">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="2">
         <v>0.4</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="S12" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="T12" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="U12" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="V12" s="6">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="S13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="T13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V13" s="6">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="S14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="T14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V14" s="6">
         <v>0</v>
@@ -3705,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4104,6 +4104,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -4273,15 +4282,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4289,6 +4289,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4302,14 +4310,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAB41B7F-2021-41A1-8B40-50B639A22890}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8525460-4A42-4DEB-83B1-E1813F6DF09A}"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="-1200" windowWidth="32490" windowHeight="14340" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="21480" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="130">
   <si>
     <t>type_hs</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>STANDARD17</t>
+  </si>
+  <si>
+    <t>area_sc</t>
   </si>
 </sst>
 </file>
@@ -1609,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,11 +1643,12 @@
     <col min="20" max="20" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="23" width="8.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1712,14 +1716,17 @@
         <v>81</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="15"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1790,12 +1797,15 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="15"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="15"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1866,12 +1876,15 @@
       <c r="W3" s="6">
         <v>0</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y3" s="15"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1942,12 +1955,15 @@
       <c r="W4" s="6">
         <v>0</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="15"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2018,12 +2034,15 @@
       <c r="W5" s="6">
         <v>0</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y5" s="15"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2094,12 +2113,15 @@
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2170,12 +2192,15 @@
       <c r="W7" s="6">
         <v>0</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="15"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
@@ -2246,12 +2271,15 @@
       <c r="W8" s="6">
         <v>0</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" s="15"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -2322,12 +2350,15 @@
       <c r="W9" s="6">
         <v>0</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
@@ -2398,12 +2429,15 @@
       <c r="W10" s="6">
         <v>0</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="15"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -2474,12 +2508,15 @@
       <c r="W11" s="6">
         <v>0</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="15"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2550,12 +2587,15 @@
       <c r="W12" s="6">
         <v>0</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -2626,12 +2666,15 @@
       <c r="W13" s="6">
         <v>0</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -2702,12 +2745,15 @@
       <c r="W14" s="6">
         <v>0</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -2778,12 +2824,15 @@
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2854,12 +2903,15 @@
       <c r="W16" s="6">
         <v>0</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -2930,12 +2982,15 @@
       <c r="W17" s="6">
         <v>0</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y17" s="15"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>128</v>
       </c>
@@ -3006,16 +3061,19 @@
       <c r="W18" s="6">
         <v>0</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
-    <hyperlink ref="X3:X18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
+    <hyperlink ref="Y2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
+    <hyperlink ref="Y3:Y18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4104,12 +4162,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4283,15 +4338,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4315,17 +4381,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8525460-4A42-4DEB-83B1-E1813F6DF09A}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54195132-CBA8-4347-9190-831E8686D5E4}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="21480" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45090" yWindow="2400" windowWidth="24810" windowHeight="15600" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="132">
   <si>
     <t>type_hs</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>area_sc</t>
+  </si>
+  <si>
+    <t>type_col</t>
+  </si>
+  <si>
+    <t>COLUMN_AS0</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1612,13 +1619,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2:W18"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,23 +1639,24 @@
     <col min="7" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1683,50 +1691,53 @@
         <v>75</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="15"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1761,26 +1772,26 @@
       <c r="K2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N2" s="2">
         <v>0.82</v>
       </c>
       <c r="O2" s="2">
         <v>0.82</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.2</v>
+      <c r="P2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>0.2</v>
@@ -1791,8 +1802,8 @@
       <c r="U2" s="2">
         <v>0.2</v>
       </c>
-      <c r="V2" s="6">
-        <v>0</v>
+      <c r="V2" s="2">
+        <v>0.2</v>
       </c>
       <c r="W2" s="6">
         <v>0</v>
@@ -1800,12 +1811,15 @@
       <c r="X2" s="6">
         <v>0</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="15"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1840,26 +1854,26 @@
       <c r="K3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N3" s="2">
         <v>0.82</v>
       </c>
       <c r="O3" s="2">
         <v>0.82</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.35</v>
+      <c r="P3" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <v>0.35</v>
@@ -1870,8 +1884,8 @@
       <c r="U3" s="2">
         <v>0.35</v>
       </c>
-      <c r="V3" s="6">
-        <v>0</v>
+      <c r="V3" s="2">
+        <v>0.35</v>
       </c>
       <c r="W3" s="6">
         <v>0</v>
@@ -1879,12 +1893,15 @@
       <c r="X3" s="6">
         <v>0</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="15"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1919,26 +1936,26 @@
       <c r="K4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N4" s="2">
         <v>0.82</v>
       </c>
       <c r="O4" s="2">
         <v>0.82</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.35</v>
+      <c r="P4" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>0.35</v>
@@ -1949,8 +1966,8 @@
       <c r="U4" s="2">
         <v>0.35</v>
       </c>
-      <c r="V4" s="6">
-        <v>0</v>
+      <c r="V4" s="2">
+        <v>0.35</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
@@ -1958,12 +1975,15 @@
       <c r="X4" s="6">
         <v>0</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1998,29 +2018,29 @@
       <c r="K5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N5" s="2">
         <v>0.82</v>
       </c>
       <c r="O5" s="2">
         <v>0.82</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="P5" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>0.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.4</v>
       </c>
       <c r="T5" s="2">
         <v>0.4</v>
@@ -2028,8 +2048,8 @@
       <c r="U5" s="2">
         <v>0.4</v>
       </c>
-      <c r="V5" s="6">
-        <v>0</v>
+      <c r="V5" s="2">
+        <v>0.4</v>
       </c>
       <c r="W5" s="6">
         <v>0</v>
@@ -2037,12 +2057,15 @@
       <c r="X5" s="6">
         <v>0</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2077,26 +2100,26 @@
       <c r="K6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N6" s="2">
         <v>0.82</v>
       </c>
       <c r="O6" s="2">
         <v>0.82</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.4</v>
+      <c r="P6" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
         <v>0.4</v>
@@ -2107,8 +2130,8 @@
       <c r="U6" s="2">
         <v>0.4</v>
       </c>
-      <c r="V6" s="6">
-        <v>0</v>
+      <c r="V6" s="2">
+        <v>0.4</v>
       </c>
       <c r="W6" s="6">
         <v>0</v>
@@ -2116,12 +2139,15 @@
       <c r="X6" s="6">
         <v>0</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6" s="15"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2156,26 +2182,26 @@
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N7" s="2">
         <v>0.82</v>
       </c>
       <c r="O7" s="2">
         <v>0.82</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.4</v>
+      <c r="P7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>0.4</v>
@@ -2186,8 +2212,8 @@
       <c r="U7" s="2">
         <v>0.4</v>
       </c>
-      <c r="V7" s="6">
-        <v>0</v>
+      <c r="V7" s="2">
+        <v>0.4</v>
       </c>
       <c r="W7" s="6">
         <v>0</v>
@@ -2195,12 +2221,15 @@
       <c r="X7" s="6">
         <v>0</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
@@ -2235,26 +2264,26 @@
       <c r="K8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N8" s="2">
         <v>0.82</v>
       </c>
       <c r="O8" s="2">
         <v>0.82</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.4</v>
+      <c r="P8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
       </c>
       <c r="S8" s="2">
         <v>0.4</v>
@@ -2265,8 +2294,8 @@
       <c r="U8" s="2">
         <v>0.4</v>
       </c>
-      <c r="V8" s="6">
-        <v>0</v>
+      <c r="V8" s="2">
+        <v>0.4</v>
       </c>
       <c r="W8" s="6">
         <v>0</v>
@@ -2274,12 +2303,15 @@
       <c r="X8" s="6">
         <v>0</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -2314,26 +2346,26 @@
       <c r="K9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N9" s="2">
         <v>0.82</v>
       </c>
       <c r="O9" s="2">
         <v>0.82</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.4</v>
+      <c r="P9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
         <v>0.4</v>
@@ -2344,8 +2376,8 @@
       <c r="U9" s="2">
         <v>0.4</v>
       </c>
-      <c r="V9" s="6">
-        <v>0</v>
+      <c r="V9" s="2">
+        <v>0.4</v>
       </c>
       <c r="W9" s="6">
         <v>0</v>
@@ -2353,12 +2385,15 @@
       <c r="X9" s="6">
         <v>0</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" s="15"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
@@ -2393,26 +2428,26 @@
       <c r="K10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N10" s="2">
         <v>0.82</v>
       </c>
       <c r="O10" s="2">
         <v>0.82</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.4</v>
+      <c r="P10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
       </c>
       <c r="S10" s="2">
         <v>0.4</v>
@@ -2423,8 +2458,8 @@
       <c r="U10" s="2">
         <v>0.4</v>
       </c>
-      <c r="V10" s="6">
-        <v>0</v>
+      <c r="V10" s="2">
+        <v>0.4</v>
       </c>
       <c r="W10" s="6">
         <v>0</v>
@@ -2432,12 +2467,15 @@
       <c r="X10" s="6">
         <v>0</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" s="15"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -2472,26 +2510,26 @@
       <c r="K11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N11" s="2">
         <v>0.82</v>
       </c>
       <c r="O11" s="2">
         <v>0.82</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.4</v>
+      <c r="P11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
       </c>
       <c r="S11" s="2">
         <v>0.4</v>
@@ -2502,8 +2540,8 @@
       <c r="U11" s="2">
         <v>0.4</v>
       </c>
-      <c r="V11" s="6">
-        <v>0</v>
+      <c r="V11" s="2">
+        <v>0.4</v>
       </c>
       <c r="W11" s="6">
         <v>0</v>
@@ -2511,12 +2549,15 @@
       <c r="X11" s="6">
         <v>0</v>
       </c>
-      <c r="Y11" s="16" t="s">
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -2551,26 +2592,26 @@
       <c r="K12" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N12" s="2">
         <v>0.82</v>
       </c>
       <c r="O12" s="2">
         <v>0.82</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.2</v>
+      <c r="P12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
       </c>
       <c r="S12" s="2">
         <v>0.2</v>
@@ -2581,8 +2622,8 @@
       <c r="U12" s="2">
         <v>0.2</v>
       </c>
-      <c r="V12" s="6">
-        <v>0</v>
+      <c r="V12" s="2">
+        <v>0.2</v>
       </c>
       <c r="W12" s="6">
         <v>0</v>
@@ -2590,12 +2631,15 @@
       <c r="X12" s="6">
         <v>0</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="15"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -2630,26 +2674,26 @@
       <c r="K13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N13" s="2">
         <v>0.82</v>
       </c>
       <c r="O13" s="2">
         <v>0.82</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.35</v>
+      <c r="P13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
       </c>
       <c r="S13" s="2">
         <v>0.35</v>
@@ -2660,8 +2704,8 @@
       <c r="U13" s="2">
         <v>0.35</v>
       </c>
-      <c r="V13" s="6">
-        <v>0</v>
+      <c r="V13" s="2">
+        <v>0.35</v>
       </c>
       <c r="W13" s="6">
         <v>0</v>
@@ -2669,12 +2713,15 @@
       <c r="X13" s="6">
         <v>0</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -2709,26 +2756,26 @@
       <c r="K14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N14" s="2">
         <v>0.82</v>
       </c>
       <c r="O14" s="2">
         <v>0.82</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.35</v>
+      <c r="P14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
       </c>
       <c r="S14" s="2">
         <v>0.35</v>
@@ -2739,8 +2786,8 @@
       <c r="U14" s="2">
         <v>0.35</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
+      <c r="V14" s="2">
+        <v>0.35</v>
       </c>
       <c r="W14" s="6">
         <v>0</v>
@@ -2748,12 +2795,15 @@
       <c r="X14" s="6">
         <v>0</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -2788,26 +2838,26 @@
       <c r="K15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N15" s="2">
         <v>0.82</v>
       </c>
       <c r="O15" s="2">
         <v>0.82</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.4</v>
+      <c r="P15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
       </c>
       <c r="S15" s="2">
         <v>0.4</v>
@@ -2818,8 +2868,8 @@
       <c r="U15" s="2">
         <v>0.4</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
+      <c r="V15" s="2">
+        <v>0.4</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
@@ -2827,12 +2877,15 @@
       <c r="X15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -2867,26 +2920,26 @@
       <c r="K16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N16" s="2">
         <v>0.82</v>
       </c>
       <c r="O16" s="2">
         <v>0.82</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.4</v>
+      <c r="P16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
       </c>
       <c r="S16" s="2">
         <v>0.4</v>
@@ -2897,8 +2950,8 @@
       <c r="U16" s="2">
         <v>0.4</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
+      <c r="V16" s="2">
+        <v>0.4</v>
       </c>
       <c r="W16" s="6">
         <v>0</v>
@@ -2906,12 +2959,15 @@
       <c r="X16" s="6">
         <v>0</v>
       </c>
-      <c r="Y16" s="16" t="s">
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -2946,26 +3002,26 @@
       <c r="K17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N17" s="2">
         <v>0.82</v>
       </c>
       <c r="O17" s="2">
         <v>0.82</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.4</v>
+      <c r="P17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
       </c>
       <c r="S17" s="2">
         <v>0.4</v>
@@ -2976,8 +3032,8 @@
       <c r="U17" s="2">
         <v>0.4</v>
       </c>
-      <c r="V17" s="6">
-        <v>0</v>
+      <c r="V17" s="2">
+        <v>0.4</v>
       </c>
       <c r="W17" s="6">
         <v>0</v>
@@ -2985,12 +3041,15 @@
       <c r="X17" s="6">
         <v>0</v>
       </c>
-      <c r="Y17" s="16" t="s">
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>128</v>
       </c>
@@ -3025,26 +3084,26 @@
       <c r="K18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="2">
-        <v>0.82</v>
-      </c>
       <c r="N18" s="2">
         <v>0.82</v>
       </c>
       <c r="O18" s="2">
         <v>0.82</v>
       </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.4</v>
+      <c r="P18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
       </c>
       <c r="S18" s="2">
         <v>0.4</v>
@@ -3055,8 +3114,8 @@
       <c r="U18" s="2">
         <v>0.4</v>
       </c>
-      <c r="V18" s="6">
-        <v>0</v>
+      <c r="V18" s="2">
+        <v>0.4</v>
       </c>
       <c r="W18" s="6">
         <v>0</v>
@@ -3064,16 +3123,19 @@
       <c r="X18" s="6">
         <v>0</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
-    <hyperlink ref="Y3:Y18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
+    <hyperlink ref="Z2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
+    <hyperlink ref="Z3:Z18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4162,9 +4224,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,26 +4403,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4381,9 +4435,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assistenz\Desktop\REMoD\Case_studies\Bonstetten_Wettswil\inputs\technology\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30023ACE-ACC8-4E5D-B644-EA5EC2E13074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="19335" windowHeight="16455" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -299,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -903,9 +904,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="OPbrntBvG5@student.ethz.ch" id="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" userId="S::OPbrntBvG5@student.ethz.ch::4619f5d3-a278-48a2-998f-258564ebce46" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,33 +1168,23 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2019-09-11T13:24:25.40" personId="{CCCC8246-769A-4BF8-9848-A321DBADB4A3}" id="{FF09A2C2-F812-4995-AC4D-DC9926B18FFB}">
-    <text>old CEA database: T2 instead of T3 (mini split AC instead of central AC)
-Currently: all changed to T3
-Discussion with Martin about this</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1212,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1226,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1251,7 +1240,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1254,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1268,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1302,39 +1291,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1369,13 +1358,13 @@
         <v>18</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>15</v>
@@ -1393,7 +1382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1430,11 +1419,11 @@
       <c r="L2" s="2">
         <v>0.82</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
       </c>
       <c r="O2" s="7">
         <v>0</v>
@@ -1453,7 +1442,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1490,11 +1479,11 @@
       <c r="L3" s="2">
         <v>0.82</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
       </c>
       <c r="O3" s="7">
         <v>0</v>
@@ -1513,7 +1502,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1550,11 +1539,11 @@
       <c r="L4" s="2">
         <v>0.82</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
       </c>
       <c r="O4" s="7">
         <v>0</v>
@@ -1573,7 +1562,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1610,11 +1599,11 @@
       <c r="L5" s="2">
         <v>0.82</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
       </c>
       <c r="O5" s="7">
         <v>0</v>
@@ -1633,7 +1622,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1670,11 +1659,11 @@
       <c r="L6" s="2">
         <v>0.82</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
       </c>
       <c r="O6" s="7">
         <v>0</v>
@@ -1692,7 +1681,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1729,11 +1718,11 @@
       <c r="L7" s="2">
         <v>0.82</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.82</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
       </c>
       <c r="O7" s="7">
         <v>0</v>
@@ -1758,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -1768,20 +1757,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +1834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1877,7 +1866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1941,7 +1930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1973,7 +1962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2012,24 +2001,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2046,7 +2035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +2069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2114,7 +2103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2131,7 +2120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2154,6 +2143,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2323,35 +2327,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2373,9 +2352,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebpgroup-my.sharepoint.com/personal/jimeno_fonseca_ebp_ch/Documents/Dokumente/CityEnergyAnalyst/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="11_FC738FCD21D91416D512F37F2E5BB974BC1D8DF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54195132-CBA8-4347-9190-831E8686D5E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B9418-0FA5-5648-BAA2-39592E4375C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45090" yWindow="2400" windowWidth="24810" windowHeight="15600" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38340" yWindow="-8600" windowWidth="34700" windowHeight="15600" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="130">
   <si>
     <t>type_hs</t>
   </si>
@@ -285,9 +285,6 @@
     <t>area_balcon</t>
   </si>
   <si>
-    <t>area_pv</t>
-  </si>
-  <si>
     <t>STANDARD7</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>Concrete and Masonry from 1990's to 2000's  (renovated)</t>
   </si>
   <si>
-    <t>Refernez</t>
-  </si>
-  <si>
     <t>1.3 Gebäudehülle seit 1900 | Bautechnik der Gebäudehülle (enbau-online.ch)</t>
   </si>
   <si>
@@ -429,13 +423,13 @@
     <t>STANDARD17</t>
   </si>
   <si>
-    <t>area_sc</t>
-  </si>
-  <si>
     <t>type_col</t>
   </si>
   <si>
     <t>COLUMN_AS0</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -602,7 +596,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -974,7 +968,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,16 +989,13 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1344,19 +1335,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1370,12 +1361,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
@@ -1384,49 +1375,49 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="10">
         <v>1930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="10">
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="10">
         <v>1970</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1440,82 +1431,82 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="11">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="11">
+        <v>98</v>
+      </c>
+      <c r="D11" s="10">
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>40</v>
@@ -1524,54 +1515,54 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="10">
         <v>1930</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>1960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10">
         <v>1970</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>41</v>
@@ -1580,31 +1571,31 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>1990</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="11">
+        <v>100</v>
+      </c>
+      <c r="D18" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -1619,44 +1610,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L18"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1679,7 @@
         <v>75</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>4</v>
@@ -1724,24 +1712,18 @@
         <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="12" t="str">
         <f>STANDARD_DEFINITION!B2</f>
         <v>Stone and Masonry before 1900's</v>
       </c>
@@ -1749,31 +1731,31 @@
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>131</v>
+      <c r="L2" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>64</v>
@@ -1808,22 +1790,16 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
         <v>Concrete and Masonry from 1900's to 1930's</v>
       </c>
@@ -1831,31 +1807,31 @@
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>131</v>
+      <c r="L3" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>64</v>
@@ -1890,22 +1866,16 @@
       <c r="W3" s="6">
         <v>0</v>
       </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="12" t="str">
         <f>STANDARD_DEFINITION!B4</f>
         <v>Concrete and Masonry from 1930s to 1960's</v>
       </c>
@@ -1913,31 +1883,31 @@
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>131</v>
+      <c r="K4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>64</v>
@@ -1972,22 +1942,16 @@
       <c r="W4" s="6">
         <v>0</v>
       </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="12" t="str">
         <f>STANDARD_DEFINITION!B5</f>
         <v>Concrete and Masonry from 1960's to 1970's</v>
       </c>
@@ -2000,26 +1964,26 @@
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>131</v>
+      <c r="L5" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>64</v>
@@ -2054,22 +2018,16 @@
       <c r="W5" s="6">
         <v>0</v>
       </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="12" t="str">
         <f>STANDARD_DEFINITION!B6</f>
         <v>Concrete and Masonry from 1970's to 1980's</v>
       </c>
@@ -2082,26 +2040,26 @@
       <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>131</v>
+      <c r="L6" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>63</v>
@@ -2136,22 +2094,16 @@
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="12" t="str">
         <f>STANDARD_DEFINITION!B7</f>
         <v>Concrete and Masonry from 1980's to 1990's</v>
       </c>
@@ -2162,28 +2114,28 @@
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>131</v>
+      <c r="L7" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>63</v>
@@ -2218,22 +2170,16 @@
       <c r="W7" s="6">
         <v>0</v>
       </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="13" t="str">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12" t="str">
         <f>STANDARD_DEFINITION!B8</f>
         <v>Concrete and Masonry from 1990's to 2000's</v>
       </c>
@@ -2244,28 +2190,28 @@
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>131</v>
+      <c r="L8" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>63</v>
@@ -2300,22 +2246,16 @@
       <c r="W8" s="6">
         <v>0</v>
       </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="13" t="str">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12" t="str">
         <f>STANDARD_DEFINITION!B9</f>
         <v>Concrete and Masonry from 2000's to 2010's</v>
       </c>
@@ -2326,28 +2266,28 @@
         <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>131</v>
+      <c r="L9" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>63</v>
@@ -2382,22 +2322,16 @@
       <c r="W9" s="6">
         <v>0</v>
       </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA9" s="15"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="13" t="str">
+        <v>83</v>
+      </c>
+      <c r="B10" s="12" t="str">
         <f>STANDARD_DEFINITION!B10</f>
         <v>Concrete and Masonry from 2010's to 2020's</v>
       </c>
@@ -2411,25 +2345,25 @@
         <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>131</v>
+      <c r="L10" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>63</v>
@@ -2464,22 +2398,16 @@
       <c r="W10" s="6">
         <v>0</v>
       </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA10" s="15"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="13" t="str">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="str">
         <f>STANDARD_DEFINITION!B11</f>
         <v>Concrete and Masonry (Minergie A)</v>
       </c>
@@ -2496,22 +2424,22 @@
         <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>131</v>
+      <c r="L11" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>63</v>
@@ -2546,22 +2474,16 @@
       <c r="W11" s="6">
         <v>0</v>
       </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA11" s="15"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="13" t="str">
+        <v>120</v>
+      </c>
+      <c r="B12" s="12" t="str">
         <f>STANDARD_DEFINITION!B12</f>
         <v>Stone and Masonry before 1900's (renovated)</v>
       </c>
@@ -2572,28 +2494,28 @@
         <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>131</v>
+      <c r="K12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>64</v>
@@ -2628,22 +2550,16 @@
       <c r="W12" s="6">
         <v>0</v>
       </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA12" s="15"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="13" t="str">
+        <v>121</v>
+      </c>
+      <c r="B13" s="12" t="str">
         <f>STANDARD_DEFINITION!B13</f>
         <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
       </c>
@@ -2654,28 +2570,28 @@
         <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>131</v>
+      <c r="L13" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>64</v>
@@ -2710,22 +2626,16 @@
       <c r="W13" s="6">
         <v>0</v>
       </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="13" t="str">
+        <v>122</v>
+      </c>
+      <c r="B14" s="12" t="str">
         <f>STANDARD_DEFINITION!B14</f>
         <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
       </c>
@@ -2736,28 +2646,28 @@
         <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>131</v>
+      <c r="L14" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>64</v>
@@ -2792,22 +2702,16 @@
       <c r="W14" s="6">
         <v>0</v>
       </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="13" t="str">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="str">
         <f>STANDARD_DEFINITION!B15</f>
         <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
       </c>
@@ -2818,28 +2722,28 @@
         <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>131</v>
+      <c r="L15" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>64</v>
@@ -2874,22 +2778,16 @@
       <c r="W15" s="6">
         <v>0</v>
       </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="13" t="str">
+        <v>124</v>
+      </c>
+      <c r="B16" s="12" t="str">
         <f>STANDARD_DEFINITION!B16</f>
         <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
       </c>
@@ -2900,28 +2798,28 @@
         <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>131</v>
+      <c r="L16" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>63</v>
@@ -2956,22 +2854,16 @@
       <c r="W16" s="6">
         <v>0</v>
       </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="13" t="str">
+        <v>125</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>STANDARD_DEFINITION!B17</f>
         <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
       </c>
@@ -2982,28 +2874,28 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>131</v>
+      <c r="L17" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>63</v>
@@ -3038,22 +2930,16 @@
       <c r="W17" s="6">
         <v>0</v>
       </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA17" s="15"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X17" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="13" t="str">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12" t="str">
         <f>STANDARD_DEFINITION!B18</f>
         <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
       </c>
@@ -3064,28 +2950,28 @@
         <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>131</v>
+      <c r="L18" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>63</v>
@@ -3120,22 +3006,16 @@
       <c r="W18" s="6">
         <v>0</v>
       </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA18" s="15"/>
+      <c r="X18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
-    <hyperlink ref="Z3:Z18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
+    <hyperlink ref="X2" r:id="rId1" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{42C11F4B-2409-4225-9304-03185A29E2EA}"/>
+    <hyperlink ref="X3:X18" r:id="rId2" display="https://enbau-online.ch/bautechnik-der-gebaeudehuelle/1-3%e2%80%82gebaeudehuelle-seit-1900/" xr:uid="{5C7D3EC3-7290-4B40-9472-F502E9170840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3153,21 +3033,21 @@
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -3202,11 +3082,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="12" t="str">
         <f>STANDARD_DEFINITION!B2</f>
         <v>Stone and Masonry before 1900's</v>
       </c>
@@ -3238,11 +3118,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
         <v>Concrete and Masonry from 1900's to 1930's</v>
       </c>
@@ -3274,11 +3154,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="12" t="str">
         <f>STANDARD_DEFINITION!B4</f>
         <v>Concrete and Masonry from 1930s to 1960's</v>
       </c>
@@ -3310,11 +3190,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="12" t="str">
         <f>STANDARD_DEFINITION!B5</f>
         <v>Concrete and Masonry from 1960's to 1970's</v>
       </c>
@@ -3346,11 +3226,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="12" t="str">
         <f>STANDARD_DEFINITION!B6</f>
         <v>Concrete and Masonry from 1970's to 1980's</v>
       </c>
@@ -3382,11 +3262,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="12" t="str">
         <f>STANDARD_DEFINITION!B7</f>
         <v>Concrete and Masonry from 1980's to 1990's</v>
       </c>
@@ -3418,11 +3298,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="13" t="str">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12" t="str">
         <f>STANDARD_DEFINITION!B8</f>
         <v>Concrete and Masonry from 1990's to 2000's</v>
       </c>
@@ -3454,11 +3334,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="13" t="str">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12" t="str">
         <f>STANDARD_DEFINITION!B9</f>
         <v>Concrete and Masonry from 2000's to 2010's</v>
       </c>
@@ -3490,11 +3370,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="13" t="str">
+        <v>83</v>
+      </c>
+      <c r="B10" s="12" t="str">
         <f>STANDARD_DEFINITION!B10</f>
         <v>Concrete and Masonry from 2010's to 2020's</v>
       </c>
@@ -3526,11 +3406,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="13" t="str">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="str">
         <f>STANDARD_DEFINITION!B11</f>
         <v>Concrete and Masonry (Minergie A)</v>
       </c>
@@ -3562,11 +3442,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="13" t="str">
+        <v>120</v>
+      </c>
+      <c r="B12" s="12" t="str">
         <f>STANDARD_DEFINITION!B12</f>
         <v>Stone and Masonry before 1900's (renovated)</v>
       </c>
@@ -3598,11 +3478,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="13" t="str">
+        <v>121</v>
+      </c>
+      <c r="B13" s="12" t="str">
         <f>STANDARD_DEFINITION!B13</f>
         <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
       </c>
@@ -3634,11 +3514,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="13" t="str">
+        <v>122</v>
+      </c>
+      <c r="B14" s="12" t="str">
         <f>STANDARD_DEFINITION!B14</f>
         <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
       </c>
@@ -3670,11 +3550,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="13" t="str">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="str">
         <f>STANDARD_DEFINITION!B15</f>
         <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
       </c>
@@ -3706,11 +3586,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="13" t="str">
+        <v>124</v>
+      </c>
+      <c r="B16" s="12" t="str">
         <f>STANDARD_DEFINITION!B16</f>
         <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
       </c>
@@ -3742,11 +3622,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="13" t="str">
+        <v>125</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>STANDARD_DEFINITION!B17</f>
         <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
       </c>
@@ -3778,11 +3658,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="13" t="str">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12" t="str">
         <f>STANDARD_DEFINITION!B18</f>
         <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
       </c>
@@ -3826,21 +3706,21 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -3860,11 +3740,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="12" t="str">
         <f>STANDARD_DEFINITION!B2</f>
         <v>Stone and Masonry before 1900's</v>
       </c>
@@ -3881,11 +3761,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="12" t="str">
         <f>STANDARD_DEFINITION!B3</f>
         <v>Concrete and Masonry from 1900's to 1930's</v>
       </c>
@@ -3902,11 +3782,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="12" t="str">
         <f>STANDARD_DEFINITION!B4</f>
         <v>Concrete and Masonry from 1930s to 1960's</v>
       </c>
@@ -3923,11 +3803,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="12" t="str">
         <f>STANDARD_DEFINITION!B5</f>
         <v>Concrete and Masonry from 1960's to 1970's</v>
       </c>
@@ -3944,11 +3824,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="12" t="str">
         <f>STANDARD_DEFINITION!B6</f>
         <v>Concrete and Masonry from 1970's to 1980's</v>
       </c>
@@ -3965,11 +3845,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="12" t="str">
         <f>STANDARD_DEFINITION!B7</f>
         <v>Concrete and Masonry from 1980's to 1990's</v>
       </c>
@@ -3986,11 +3866,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="13" t="str">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12" t="str">
         <f>STANDARD_DEFINITION!B8</f>
         <v>Concrete and Masonry from 1990's to 2000's</v>
       </c>
@@ -4007,11 +3887,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="13" t="str">
+        <v>82</v>
+      </c>
+      <c r="B9" s="12" t="str">
         <f>STANDARD_DEFINITION!B9</f>
         <v>Concrete and Masonry from 2000's to 2010's</v>
       </c>
@@ -4028,11 +3908,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="13" t="str">
+        <v>83</v>
+      </c>
+      <c r="B10" s="12" t="str">
         <f>STANDARD_DEFINITION!B10</f>
         <v>Concrete and Masonry from 2010's to 2020's</v>
       </c>
@@ -4049,11 +3929,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="13" t="str">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="str">
         <f>STANDARD_DEFINITION!B11</f>
         <v>Concrete and Masonry (Minergie A)</v>
       </c>
@@ -4070,11 +3950,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="13" t="str">
+        <v>120</v>
+      </c>
+      <c r="B12" s="12" t="str">
         <f>STANDARD_DEFINITION!B12</f>
         <v>Stone and Masonry before 1900's (renovated)</v>
       </c>
@@ -4091,11 +3971,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="13" t="str">
+        <v>121</v>
+      </c>
+      <c r="B13" s="12" t="str">
         <f>STANDARD_DEFINITION!B13</f>
         <v>Concrete and Masonry from 1900's to 1930's  (renovated)</v>
       </c>
@@ -4112,11 +3992,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="13" t="str">
+        <v>122</v>
+      </c>
+      <c r="B14" s="12" t="str">
         <f>STANDARD_DEFINITION!B14</f>
         <v>Concrete and Masonry from 1930s to 1960's  (renovated)</v>
       </c>
@@ -4133,11 +4013,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="13" t="str">
+        <v>123</v>
+      </c>
+      <c r="B15" s="12" t="str">
         <f>STANDARD_DEFINITION!B15</f>
         <v>Concrete and Masonry from 1960's to 1970's  (renovated)</v>
       </c>
@@ -4154,11 +4034,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="13" t="str">
+        <v>124</v>
+      </c>
+      <c r="B16" s="12" t="str">
         <f>STANDARD_DEFINITION!B16</f>
         <v>Concrete and Masonry from 1970's to 1980's  (renovated)</v>
       </c>
@@ -4175,11 +4055,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="13" t="str">
+        <v>125</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>STANDARD_DEFINITION!B17</f>
         <v>Concrete and Masonry from 1980's to 1990's  (renovated)</v>
       </c>
@@ -4196,11 +4076,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="13" t="str">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12" t="str">
         <f>STANDARD_DEFINITION!B18</f>
         <v>Concrete and Masonry from 1990's to 2000's  (renovated)</v>
       </c>
@@ -4224,12 +4104,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4403,15 +4280,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4435,17 +4323,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B9418-0FA5-5648-BAA2-39592E4375C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97191C41-3097-A841-95C0-74C80553FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="-8600" windowWidth="34700" windowHeight="15600" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="5360" windowWidth="30740" windowHeight="11040" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="132">
   <si>
     <t>type_hs</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>type_el_pv</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS0</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
@@ -3703,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3716,11 +3722,11 @@
     <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -3739,8 +3745,11 @@
       <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -3760,8 +3769,11 @@
       <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -3781,8 +3793,11 @@
       <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -3802,8 +3817,11 @@
       <c r="F4" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -3823,8 +3841,11 @@
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -3844,8 +3865,11 @@
       <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -3865,8 +3889,11 @@
       <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -3886,8 +3913,11 @@
       <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
@@ -3907,8 +3937,11 @@
       <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
@@ -3928,8 +3961,11 @@
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -3949,8 +3985,11 @@
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
@@ -3970,8 +4009,11 @@
       <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>121</v>
       </c>
@@ -3991,8 +4033,11 @@
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
@@ -4012,8 +4057,11 @@
       <c r="F14" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>123</v>
       </c>
@@ -4033,8 +4081,11 @@
       <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -4054,8 +4105,11 @@
       <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>125</v>
       </c>
@@ -4075,8 +4129,11 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>126</v>
       </c>
@@ -4095,6 +4152,9 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/CH/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97191C41-3097-A841-95C0-74C80553FE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A7B0B-C09B-4443-A78A-586D07957005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="5360" windowWidth="30740" windowHeight="11040" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5360" windowWidth="30240" windowHeight="11040" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -3712,7 +3712,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3769,7 +3769,7 @@
       <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="F4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       <c r="F14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="F15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4170,6 +4170,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -4339,15 +4348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
@@ -4365,6 +4365,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4380,12 +4388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30023ACE-ACC8-4E5D-B644-EA5EC2E13074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1904402-D2A8-4C79-8B13-9DB9B230D649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,16 +830,13 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -901,10 +898,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,7 +1166,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1257,7 @@
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>2040</v>
       </c>
     </row>
@@ -1278,7 +1271,7 @@
       <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>2040</v>
       </c>
     </row>
@@ -1294,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1404,10 +1397,10 @@
       <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1464,10 +1457,10 @@
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1524,10 +1517,10 @@
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1584,10 +1577,10 @@
       <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1644,10 +1637,10 @@
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1703,10 +1696,10 @@
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2004,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2143,21 +2136,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2327,10 +2305,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2352,19 +2355,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
+++ b/cea/databases/CH/archetypes/CONSTRUCTION_STANDARD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeshkin\Documents\GitHub\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\CH\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1904402-D2A8-4C79-8B13-9DB9B230D649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30023ACE-ACC8-4E5D-B644-EA5EC2E13074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,13 +830,16 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,6 +901,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,7 +1173,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,7 +1264,7 @@
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>2040</v>
       </c>
     </row>
@@ -1271,7 +1278,7 @@
       <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>2040</v>
       </c>
     </row>
@@ -1287,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1397,10 +1404,10 @@
       <c r="G2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>85</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1457,10 +1464,10 @@
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1517,10 +1524,10 @@
       <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1577,10 +1584,10 @@
       <c r="G5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1637,10 +1644,10 @@
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1696,10 +1703,10 @@
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1997,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2136,6 +2143,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2305,35 +2327,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2355,9 +2352,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>